--- a/data/pca/factorExposure/factorExposure_2014-09-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.008302021120123996</v>
+        <v>0.0192645702910863</v>
       </c>
       <c r="C2">
-        <v>-0.1135481049664814</v>
+        <v>-0.07172072154532402</v>
       </c>
       <c r="D2">
-        <v>0.0009927170569613826</v>
+        <v>0.03102176944366755</v>
       </c>
       <c r="E2">
-        <v>0.2328502050355455</v>
+        <v>-0.1034257935568758</v>
       </c>
       <c r="F2">
-        <v>0.03147639253190285</v>
+        <v>-0.1214247251528388</v>
       </c>
       <c r="G2">
-        <v>0.09261505427479484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.01485362550374151</v>
+      </c>
+      <c r="H2">
+        <v>0.05814184675290488</v>
+      </c>
+      <c r="I2">
+        <v>-0.03097305381118283</v>
+      </c>
+      <c r="J2">
+        <v>0.02394890884105496</v>
+      </c>
+      <c r="K2">
+        <v>-0.1756889151888307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01700884878107177</v>
+        <v>0.01828108694431731</v>
       </c>
       <c r="C4">
-        <v>-0.1643953268799286</v>
+        <v>-0.1435884894195637</v>
       </c>
       <c r="D4">
-        <v>0.003014425704092496</v>
+        <v>0.05987114178338541</v>
       </c>
       <c r="E4">
-        <v>0.06664379036201755</v>
+        <v>0.001038924312326857</v>
       </c>
       <c r="F4">
-        <v>-0.08318238741571349</v>
+        <v>-0.07183725666689006</v>
       </c>
       <c r="G4">
-        <v>0.01510507109168811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0205852399475119</v>
+      </c>
+      <c r="H4">
+        <v>0.09002119300302275</v>
+      </c>
+      <c r="I4">
+        <v>-0.1036356677112766</v>
+      </c>
+      <c r="J4">
+        <v>0.06622898977932083</v>
+      </c>
+      <c r="K4">
+        <v>-0.160751028555425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02513027094793369</v>
+        <v>0.03810048659893483</v>
       </c>
       <c r="C6">
-        <v>-0.07800401072273153</v>
+        <v>-0.08601668939469337</v>
       </c>
       <c r="D6">
-        <v>0.05043970979643884</v>
+        <v>0.03086064504757142</v>
       </c>
       <c r="E6">
-        <v>0.06683626037516928</v>
+        <v>-0.04593581944276626</v>
       </c>
       <c r="F6">
-        <v>-0.0215611913509309</v>
+        <v>-0.01247833119176223</v>
       </c>
       <c r="G6">
-        <v>-0.01034834435240763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04176096812641581</v>
+      </c>
+      <c r="H6">
+        <v>0.02990869248104897</v>
+      </c>
+      <c r="I6">
+        <v>0.003361238157243131</v>
+      </c>
+      <c r="J6">
+        <v>-0.08203550357857785</v>
+      </c>
+      <c r="K6">
+        <v>-0.08995134290743229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.002485970611694489</v>
+        <v>0.01862857941763538</v>
       </c>
       <c r="C7">
-        <v>-0.06492587095136236</v>
+        <v>-0.07335515153525687</v>
       </c>
       <c r="D7">
-        <v>0.02993669557560144</v>
+        <v>0.02751048249499793</v>
       </c>
       <c r="E7">
-        <v>0.02503966555487937</v>
+        <v>0.01650243335318239</v>
       </c>
       <c r="F7">
-        <v>-0.05020226045779199</v>
+        <v>-0.004755263213422273</v>
       </c>
       <c r="G7">
-        <v>-0.007598289690406341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03940283432130346</v>
+      </c>
+      <c r="H7">
+        <v>0.09700147753010492</v>
+      </c>
+      <c r="I7">
+        <v>-0.02832943366566834</v>
+      </c>
+      <c r="J7">
+        <v>0.001408090389600504</v>
+      </c>
+      <c r="K7">
+        <v>-0.03511812432369456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.007873846605848176</v>
+        <v>0.0006481040898480738</v>
       </c>
       <c r="C8">
-        <v>-0.07631627189493721</v>
+        <v>-0.06306970836603021</v>
       </c>
       <c r="D8">
-        <v>0.0245133718626818</v>
+        <v>0.04111686197255229</v>
       </c>
       <c r="E8">
-        <v>0.07815753311459722</v>
+        <v>-0.02393197371748562</v>
       </c>
       <c r="F8">
-        <v>-0.03590844069768677</v>
+        <v>-0.05776563847358326</v>
       </c>
       <c r="G8">
-        <v>0.03073511440978893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01527851644415989</v>
+      </c>
+      <c r="H8">
+        <v>0.0611989862265278</v>
+      </c>
+      <c r="I8">
+        <v>-0.01949291542756559</v>
+      </c>
+      <c r="J8">
+        <v>0.001359248748449207</v>
+      </c>
+      <c r="K8">
+        <v>0.009846269913442632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.008514293068578009</v>
+        <v>0.01376383833342061</v>
       </c>
       <c r="C9">
-        <v>-0.1226340487933748</v>
+        <v>-0.1033545237658443</v>
       </c>
       <c r="D9">
-        <v>0.02913497832796875</v>
+        <v>0.04249051482783928</v>
       </c>
       <c r="E9">
-        <v>0.03102697300754873</v>
+        <v>-0.00519723841136605</v>
       </c>
       <c r="F9">
-        <v>-0.03567429633240962</v>
+        <v>-0.03201110959774067</v>
       </c>
       <c r="G9">
-        <v>-0.02978464815557748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.007281102510648523</v>
+      </c>
+      <c r="H9">
+        <v>0.08912254963112226</v>
+      </c>
+      <c r="I9">
+        <v>-0.07043876997504105</v>
+      </c>
+      <c r="J9">
+        <v>0.01748430992039219</v>
+      </c>
+      <c r="K9">
+        <v>-0.07191543259996432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2755224870949042</v>
+        <v>0.2470830275750089</v>
       </c>
       <c r="C10">
-        <v>0.08523310237334279</v>
+        <v>0.09117475762219839</v>
       </c>
       <c r="D10">
-        <v>-0.02101747828719407</v>
+        <v>-0.004285605337222152</v>
       </c>
       <c r="E10">
-        <v>-0.03472625398783907</v>
+        <v>-0.01712905613311853</v>
       </c>
       <c r="F10">
-        <v>0.00252702854624314</v>
+        <v>0.01295875261278192</v>
       </c>
       <c r="G10">
-        <v>-0.02751739463080485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02190630900749255</v>
+      </c>
+      <c r="H10">
+        <v>0.03742051906664242</v>
+      </c>
+      <c r="I10">
+        <v>0.0017792818982544</v>
+      </c>
+      <c r="J10">
+        <v>0.1782430450753795</v>
+      </c>
+      <c r="K10">
+        <v>0.1000400471992774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.006321225981926768</v>
+        <v>0.01678858845841091</v>
       </c>
       <c r="C11">
-        <v>-0.07001870166869507</v>
+        <v>-0.08331058835460627</v>
       </c>
       <c r="D11">
-        <v>0.0243623957211096</v>
+        <v>0.03777723850525643</v>
       </c>
       <c r="E11">
-        <v>-0.01721895628960841</v>
+        <v>0.009179078078150034</v>
       </c>
       <c r="F11">
-        <v>-0.01963982572216352</v>
+        <v>0.01279419260999446</v>
       </c>
       <c r="G11">
-        <v>-0.03947476196538734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.009856168063377064</v>
+      </c>
+      <c r="H11">
+        <v>0.02865766774298299</v>
+      </c>
+      <c r="I11">
+        <v>-0.01802862376563165</v>
+      </c>
+      <c r="J11">
+        <v>-0.02149845887154546</v>
+      </c>
+      <c r="K11">
+        <v>0.01336804784043952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.005308786029579993</v>
+        <v>0.01624777838837765</v>
       </c>
       <c r="C12">
-        <v>-0.04861338614040189</v>
+        <v>-0.05554112329952592</v>
       </c>
       <c r="D12">
-        <v>0.0295268877785267</v>
+        <v>0.02246252717945264</v>
       </c>
       <c r="E12">
-        <v>-0.007085528504363534</v>
+        <v>-0.01268427436120975</v>
       </c>
       <c r="F12">
-        <v>0.004629433277026704</v>
+        <v>0.01957805064486052</v>
       </c>
       <c r="G12">
-        <v>-0.058492978990141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02653462222216725</v>
+      </c>
+      <c r="H12">
+        <v>0.02563400849350642</v>
+      </c>
+      <c r="I12">
+        <v>-0.01462954457674186</v>
+      </c>
+      <c r="J12">
+        <v>-0.0145946012479494</v>
+      </c>
+      <c r="K12">
+        <v>0.001088265207258657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01604903415280411</v>
+        <v>0.00710993308035255</v>
       </c>
       <c r="C13">
-        <v>-0.12717686521338</v>
+        <v>-0.1222284864247761</v>
       </c>
       <c r="D13">
-        <v>0.04861458280177759</v>
+        <v>0.04061564261542804</v>
       </c>
       <c r="E13">
-        <v>0.05607082599953441</v>
+        <v>-0.155370717369409</v>
       </c>
       <c r="F13">
-        <v>0.0151601368095068</v>
+        <v>-0.05461808668199735</v>
       </c>
       <c r="G13">
-        <v>-0.1719303501980257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1123166315874753</v>
+      </c>
+      <c r="H13">
+        <v>0.132814126194989</v>
+      </c>
+      <c r="I13">
+        <v>0.1728465978679351</v>
+      </c>
+      <c r="J13">
+        <v>0.1456989942007926</v>
+      </c>
+      <c r="K13">
+        <v>0.2177460374406702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.008470066323439777</v>
+        <v>0.01943692884224825</v>
       </c>
       <c r="C14">
-        <v>-0.07055764368505467</v>
+        <v>-0.07523370927021092</v>
       </c>
       <c r="D14">
-        <v>0.02587814151542013</v>
+        <v>0.04936527038433555</v>
       </c>
       <c r="E14">
-        <v>0.04110362966354807</v>
+        <v>-0.04566349474340993</v>
       </c>
       <c r="F14">
-        <v>0.004769914542729932</v>
+        <v>0.01718350048722004</v>
       </c>
       <c r="G14">
-        <v>-0.05633623394565002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.07738717915066545</v>
+      </c>
+      <c r="H14">
+        <v>0.2075064819785838</v>
+      </c>
+      <c r="I14">
+        <v>0.005560711026958179</v>
+      </c>
+      <c r="J14">
+        <v>-0.04599607708361346</v>
+      </c>
+      <c r="K14">
+        <v>0.11510660284126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.008183396688680318</v>
+        <v>0.004106095795849866</v>
       </c>
       <c r="C15">
-        <v>-0.1016200743948665</v>
+        <v>-0.08387892413281857</v>
       </c>
       <c r="D15">
-        <v>0.03663668498175743</v>
+        <v>0.03510703011378884</v>
       </c>
       <c r="E15">
-        <v>0.0496031942085171</v>
+        <v>-0.003145467289912846</v>
       </c>
       <c r="F15">
-        <v>-0.034577287142464</v>
+        <v>-0.02387577053541368</v>
       </c>
       <c r="G15">
-        <v>-0.03591260586701106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03026996580686741</v>
+      </c>
+      <c r="H15">
+        <v>0.09459408591224117</v>
+      </c>
+      <c r="I15">
+        <v>-0.02570646204241717</v>
+      </c>
+      <c r="J15">
+        <v>-0.01752470052275031</v>
+      </c>
+      <c r="K15">
+        <v>0.06987558602168781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.009376234951461896</v>
+        <v>0.0156050170206002</v>
       </c>
       <c r="C16">
-        <v>-0.05986720755189048</v>
+        <v>-0.06275310542769691</v>
       </c>
       <c r="D16">
-        <v>0.01717283229429657</v>
+        <v>0.02638874275022585</v>
       </c>
       <c r="E16">
-        <v>-0.01058610468287385</v>
+        <v>0.003959507423459712</v>
       </c>
       <c r="F16">
-        <v>0.0001487786506451012</v>
+        <v>0.009241564457056676</v>
       </c>
       <c r="G16">
-        <v>-0.03085715165751093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.00956285060249785</v>
+      </c>
+      <c r="H16">
+        <v>0.02144411568681049</v>
+      </c>
+      <c r="I16">
+        <v>-0.01668728901361311</v>
+      </c>
+      <c r="J16">
+        <v>-0.01635520841089049</v>
+      </c>
+      <c r="K16">
+        <v>-0.002975466107995255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01318635566908457</v>
+        <v>0.01526714710001984</v>
       </c>
       <c r="C20">
-        <v>-0.08968909572024855</v>
+        <v>-0.08686552917391496</v>
       </c>
       <c r="D20">
-        <v>0.01843500207653191</v>
+        <v>0.02482968262061062</v>
       </c>
       <c r="E20">
-        <v>-0.01433989922885089</v>
+        <v>0.02477899307382472</v>
       </c>
       <c r="F20">
-        <v>-0.05176347918067529</v>
+        <v>0.0008134851113661363</v>
       </c>
       <c r="G20">
-        <v>-0.084957458992862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04068683727870796</v>
+      </c>
+      <c r="H20">
+        <v>0.07173705630618879</v>
+      </c>
+      <c r="I20">
+        <v>-0.02152527418664268</v>
+      </c>
+      <c r="J20">
+        <v>-0.01074920752758531</v>
+      </c>
+      <c r="K20">
+        <v>-0.008970911585474004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.001987620522409308</v>
+        <v>0.01403458111452667</v>
       </c>
       <c r="C21">
-        <v>-0.09765644956335431</v>
+        <v>-0.07285163194233341</v>
       </c>
       <c r="D21">
-        <v>-0.03183256367982148</v>
+        <v>0.02003605126205104</v>
       </c>
       <c r="E21">
-        <v>0.05428653170347326</v>
+        <v>-0.09656269666365477</v>
       </c>
       <c r="F21">
-        <v>0.03438602829968476</v>
+        <v>0.01850237482212126</v>
       </c>
       <c r="G21">
-        <v>-0.04318186289976202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02489826040442561</v>
+      </c>
+      <c r="H21">
+        <v>0.1421807568533439</v>
+      </c>
+      <c r="I21">
+        <v>0.04274113986183387</v>
+      </c>
+      <c r="J21">
+        <v>0.003782041241181423</v>
+      </c>
+      <c r="K21">
+        <v>0.03550973419354594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.03831447298253514</v>
+        <v>0.008222801994121861</v>
       </c>
       <c r="C22">
-        <v>-0.2205685049663621</v>
+        <v>-0.1806312694209183</v>
       </c>
       <c r="D22">
-        <v>-0.08755271789673123</v>
+        <v>0.01384553665435622</v>
       </c>
       <c r="E22">
-        <v>0.2648893362753917</v>
+        <v>-0.08614281017596903</v>
       </c>
       <c r="F22">
-        <v>-0.2159301840072424</v>
+        <v>-0.5238840646261697</v>
       </c>
       <c r="G22">
-        <v>0.1456573791580761</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.005943294078916602</v>
+      </c>
+      <c r="H22">
+        <v>-0.3091556842006418</v>
+      </c>
+      <c r="I22">
+        <v>0.06106866625802537</v>
+      </c>
+      <c r="J22">
+        <v>-0.00872530866786146</v>
+      </c>
+      <c r="K22">
+        <v>0.1856106356516962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.03778347662960319</v>
+        <v>0.01325624696566718</v>
       </c>
       <c r="C23">
-        <v>-0.2210563008537223</v>
+        <v>-0.1843917992689996</v>
       </c>
       <c r="D23">
-        <v>-0.08728908830526068</v>
+        <v>0.01309373074244962</v>
       </c>
       <c r="E23">
-        <v>0.2611920017368327</v>
+        <v>-0.0841994095622205</v>
       </c>
       <c r="F23">
-        <v>-0.2133741752680008</v>
+        <v>-0.5055575436096822</v>
       </c>
       <c r="G23">
-        <v>0.1450715074512796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.008630749572399022</v>
+      </c>
+      <c r="H23">
+        <v>-0.2874520474881998</v>
+      </c>
+      <c r="I23">
+        <v>0.05212088749252528</v>
+      </c>
+      <c r="J23">
+        <v>-0.0120237469559823</v>
+      </c>
+      <c r="K23">
+        <v>0.1728656783843397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.00424275738646697</v>
+        <v>0.01671002034219833</v>
       </c>
       <c r="C24">
-        <v>-0.05729529270822859</v>
+        <v>-0.06656086903940342</v>
       </c>
       <c r="D24">
-        <v>0.03761122105219693</v>
+        <v>0.0388579363220601</v>
       </c>
       <c r="E24">
-        <v>-0.009314235843437858</v>
+        <v>0.007405250620408325</v>
       </c>
       <c r="F24">
-        <v>-0.01485774080130826</v>
+        <v>0.007606195009903348</v>
       </c>
       <c r="G24">
-        <v>-0.05375075415548554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02606185589511365</v>
+      </c>
+      <c r="H24">
+        <v>0.03792220448778646</v>
+      </c>
+      <c r="I24">
+        <v>-0.02125976690115905</v>
+      </c>
+      <c r="J24">
+        <v>-0.01453249638440902</v>
+      </c>
+      <c r="K24">
+        <v>0.005122191699487784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.006571377993429891</v>
+        <v>0.0209392322997962</v>
       </c>
       <c r="C25">
-        <v>-0.06619565961192012</v>
+        <v>-0.07043438892985554</v>
       </c>
       <c r="D25">
-        <v>0.01663370565694452</v>
+        <v>0.02905362468555186</v>
       </c>
       <c r="E25">
-        <v>-0.0174391217530582</v>
+        <v>0.008200914474052134</v>
       </c>
       <c r="F25">
-        <v>-0.01485718035940619</v>
+        <v>0.006026771553043988</v>
       </c>
       <c r="G25">
-        <v>-0.05108121248303817</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0205137229267996</v>
+      </c>
+      <c r="H25">
+        <v>0.03284424825384889</v>
+      </c>
+      <c r="I25">
+        <v>-0.02046017356877548</v>
+      </c>
+      <c r="J25">
+        <v>-0.003791555542297701</v>
+      </c>
+      <c r="K25">
+        <v>0.0176784806602348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.005434464890565342</v>
+        <v>0.02446356154692421</v>
       </c>
       <c r="C26">
-        <v>-0.06055632152840278</v>
+        <v>-0.05843481208897497</v>
       </c>
       <c r="D26">
-        <v>0.05443847804788669</v>
+        <v>0.06392246242097634</v>
       </c>
       <c r="E26">
-        <v>0.01528469651245002</v>
+        <v>0.005986505024009392</v>
       </c>
       <c r="F26">
-        <v>0.006810591104414324</v>
+        <v>0.01736480027079369</v>
       </c>
       <c r="G26">
-        <v>-0.02757289923373908</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.00314769735509172</v>
+      </c>
+      <c r="H26">
+        <v>0.096923890078447</v>
+      </c>
+      <c r="I26">
+        <v>-0.07443537227864283</v>
+      </c>
+      <c r="J26">
+        <v>-0.02579431844974027</v>
+      </c>
+      <c r="K26">
+        <v>-0.1129692439163589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3734175039769275</v>
+        <v>0.3161366069136036</v>
       </c>
       <c r="C28">
-        <v>0.09934540843356275</v>
+        <v>0.1076209645577998</v>
       </c>
       <c r="D28">
-        <v>-0.02252886422052727</v>
+        <v>-0.03150400643396193</v>
       </c>
       <c r="E28">
-        <v>-0.07967098197440504</v>
+        <v>-0.02882417586675847</v>
       </c>
       <c r="F28">
-        <v>0.08747169497223879</v>
+        <v>-0.03343312557306136</v>
       </c>
       <c r="G28">
-        <v>0.0290407570856387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1286092967200216</v>
+      </c>
+      <c r="H28">
+        <v>0.05708593673816885</v>
+      </c>
+      <c r="I28">
+        <v>0.07523359519935009</v>
+      </c>
+      <c r="J28">
+        <v>0.1953046242005178</v>
+      </c>
+      <c r="K28">
+        <v>-0.01809448593759833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.007758551387209484</v>
+        <v>0.01378566342239769</v>
       </c>
       <c r="C29">
-        <v>-0.0740070432894693</v>
+        <v>-0.08155526405397637</v>
       </c>
       <c r="D29">
-        <v>0.03890788827158535</v>
+        <v>0.05445751715942796</v>
       </c>
       <c r="E29">
-        <v>0.03787119989008696</v>
+        <v>-0.05335012928673832</v>
       </c>
       <c r="F29">
-        <v>-0.005555960690161905</v>
+        <v>0.01242236850366975</v>
       </c>
       <c r="G29">
-        <v>-0.09284087705266857</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1183531387557261</v>
+      </c>
+      <c r="H29">
+        <v>0.2934143921240757</v>
+      </c>
+      <c r="I29">
+        <v>0.009797536280298842</v>
+      </c>
+      <c r="J29">
+        <v>-0.03505300382528671</v>
+      </c>
+      <c r="K29">
+        <v>0.1811434774231634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.03024580362561833</v>
+        <v>0.03210588256927459</v>
       </c>
       <c r="C30">
-        <v>-0.1776919095249103</v>
+        <v>-0.1454004661465202</v>
       </c>
       <c r="D30">
-        <v>0.05816628386105319</v>
+        <v>0.05661214283575305</v>
       </c>
       <c r="E30">
-        <v>0.03256463053315464</v>
+        <v>-0.006448570607120764</v>
       </c>
       <c r="F30">
-        <v>-0.05412798353690246</v>
+        <v>-0.0659242687573635</v>
       </c>
       <c r="G30">
-        <v>-0.004537255893875089</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.0117561734588954</v>
+      </c>
+      <c r="H30">
+        <v>0.03261936683971667</v>
+      </c>
+      <c r="I30">
+        <v>-0.03994361318867302</v>
+      </c>
+      <c r="J30">
+        <v>-0.02393023867163128</v>
+      </c>
+      <c r="K30">
+        <v>-0.08604719904997551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.004067622226426902</v>
+        <v>0.01345106135287039</v>
       </c>
       <c r="C31">
-        <v>-0.0580127628852208</v>
+        <v>-0.08059466124444388</v>
       </c>
       <c r="D31">
-        <v>0.03406416057505256</v>
+        <v>0.04102646362578233</v>
       </c>
       <c r="E31">
-        <v>-0.01229867900077099</v>
+        <v>-0.0007138607173905184</v>
       </c>
       <c r="F31">
-        <v>0.00873104051227694</v>
+        <v>0.0002765295303302115</v>
       </c>
       <c r="G31">
-        <v>-0.0177729534947963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02437475222990904</v>
+      </c>
+      <c r="H31">
+        <v>0.0333501691188625</v>
+      </c>
+      <c r="I31">
+        <v>-0.02005003886064869</v>
+      </c>
+      <c r="J31">
+        <v>-0.01157023219125</v>
+      </c>
+      <c r="K31">
+        <v>0.03048415660898797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.0201204759420334</v>
+        <v>0.02193771380560111</v>
       </c>
       <c r="C32">
-        <v>-0.08130613701227327</v>
+        <v>-0.05258154963867084</v>
       </c>
       <c r="D32">
-        <v>-0.009625241314475145</v>
+        <v>0.01717151994376784</v>
       </c>
       <c r="E32">
-        <v>0.1605581997081734</v>
+        <v>-0.0969861620997665</v>
       </c>
       <c r="F32">
-        <v>-0.03265640423079986</v>
+        <v>-0.06953616617421679</v>
       </c>
       <c r="G32">
-        <v>-0.0509645680534026</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.06266164230364052</v>
+      </c>
+      <c r="H32">
+        <v>0.1694737896502363</v>
+      </c>
+      <c r="I32">
+        <v>0.1274939063387421</v>
+      </c>
+      <c r="J32">
+        <v>0.2173048409630218</v>
+      </c>
+      <c r="K32">
+        <v>0.02317124324401234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01487005315308692</v>
+        <v>0.01746658270638068</v>
       </c>
       <c r="C33">
-        <v>-0.0896786540107104</v>
+        <v>-0.1064275590558447</v>
       </c>
       <c r="D33">
-        <v>0.06026386572483706</v>
+        <v>0.04866973766125809</v>
       </c>
       <c r="E33">
-        <v>0.01322905347343231</v>
+        <v>0.002708741351241685</v>
       </c>
       <c r="F33">
-        <v>-0.00375564908797278</v>
+        <v>-0.013858323820965</v>
       </c>
       <c r="G33">
-        <v>-0.02950955415913412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02667449333826241</v>
+      </c>
+      <c r="H33">
+        <v>0.05357413169005755</v>
+      </c>
+      <c r="I33">
+        <v>-0.02453319149665168</v>
+      </c>
+      <c r="J33">
+        <v>0.02548730507349713</v>
+      </c>
+      <c r="K33">
+        <v>0.0006818841765986165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.002093908631597254</v>
+        <v>0.01609482296683315</v>
       </c>
       <c r="C34">
-        <v>-0.05012094571425987</v>
+        <v>-0.049636382088066</v>
       </c>
       <c r="D34">
-        <v>0.02006226355417208</v>
+        <v>0.01996245180997184</v>
       </c>
       <c r="E34">
-        <v>0.004153951201787721</v>
+        <v>-0.001926057503805538</v>
       </c>
       <c r="F34">
-        <v>0.00537562150900977</v>
+        <v>0.0119403169468141</v>
       </c>
       <c r="G34">
-        <v>-0.03577205300180795</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01715906642534079</v>
+      </c>
+      <c r="H34">
+        <v>0.006567212695568167</v>
+      </c>
+      <c r="I34">
+        <v>-0.0213027586082834</v>
+      </c>
+      <c r="J34">
+        <v>-0.009581943482658003</v>
+      </c>
+      <c r="K34">
+        <v>0.006252720336150072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003287666365323488</v>
+        <v>0.01031182773888323</v>
       </c>
       <c r="C35">
-        <v>-0.02326114052115805</v>
+        <v>-0.04310469923464672</v>
       </c>
       <c r="D35">
-        <v>0.006295559161529633</v>
+        <v>0.02160785305567972</v>
       </c>
       <c r="E35">
-        <v>0.01021888328463406</v>
+        <v>-0.01356607732804065</v>
       </c>
       <c r="F35">
-        <v>-0.004911836676326452</v>
+        <v>-0.0004446126464135985</v>
       </c>
       <c r="G35">
-        <v>-0.02809421181447611</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04754420926114034</v>
+      </c>
+      <c r="H35">
+        <v>0.1509815627423525</v>
+      </c>
+      <c r="I35">
+        <v>-0.01803471743216219</v>
+      </c>
+      <c r="J35">
+        <v>0.001734191125919839</v>
+      </c>
+      <c r="K35">
+        <v>0.1558908411468571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.006175928934786789</v>
+        <v>0.01686663410408975</v>
       </c>
       <c r="C36">
-        <v>-0.05274206981964686</v>
+        <v>-0.0496129942639544</v>
       </c>
       <c r="D36">
-        <v>0.04833952705586008</v>
+        <v>0.04862193015119655</v>
       </c>
       <c r="E36">
-        <v>0.005551602607998941</v>
+        <v>-0.001717360987445858</v>
       </c>
       <c r="F36">
-        <v>-0.001608471575895924</v>
+        <v>-0.003797931831658903</v>
       </c>
       <c r="G36">
-        <v>-0.01513307464194493</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.002032338775650597</v>
+      </c>
+      <c r="H36">
+        <v>0.07378630795559039</v>
+      </c>
+      <c r="I36">
+        <v>-0.01786364987906775</v>
+      </c>
+      <c r="J36">
+        <v>-0.009654297886749486</v>
+      </c>
+      <c r="K36">
+        <v>-0.03968426823322599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03099563224299788</v>
+        <v>0.01265383580459429</v>
       </c>
       <c r="C38">
-        <v>-0.05400386995265405</v>
+        <v>-0.06185216148448324</v>
       </c>
       <c r="D38">
-        <v>0.04287518309677533</v>
+        <v>0.04209421144084999</v>
       </c>
       <c r="E38">
-        <v>-0.003034046781449625</v>
+        <v>0.02457246046355115</v>
       </c>
       <c r="F38">
-        <v>-0.01692127751252939</v>
+        <v>-0.02257077401418457</v>
       </c>
       <c r="G38">
-        <v>-0.007796191765704304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0003083786335090829</v>
+      </c>
+      <c r="H38">
+        <v>0.08431343973605337</v>
+      </c>
+      <c r="I38">
+        <v>0.02688809214232133</v>
+      </c>
+      <c r="J38">
+        <v>0.05727231561280985</v>
+      </c>
+      <c r="K38">
+        <v>0.03219842691618252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.0002991636205788628</v>
+        <v>0.01710814773350369</v>
       </c>
       <c r="C39">
-        <v>-0.1293613171564764</v>
+        <v>-0.1273805942973237</v>
       </c>
       <c r="D39">
-        <v>0.03750889938193452</v>
+        <v>0.0545356316914619</v>
       </c>
       <c r="E39">
-        <v>0.01060085446473049</v>
+        <v>-0.007677213281944003</v>
       </c>
       <c r="F39">
-        <v>-0.03049294856289902</v>
+        <v>0.0005466618610341085</v>
       </c>
       <c r="G39">
-        <v>-0.07608047885155624</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04415778575011903</v>
+      </c>
+      <c r="H39">
+        <v>0.05038425238216104</v>
+      </c>
+      <c r="I39">
+        <v>-0.0123813944894579</v>
+      </c>
+      <c r="J39">
+        <v>-0.07224725894501147</v>
+      </c>
+      <c r="K39">
+        <v>-0.03206402910134123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.009277773604040963</v>
+        <v>0.01259052545368865</v>
       </c>
       <c r="C40">
-        <v>-0.02943443834855531</v>
+        <v>-0.05704069646379709</v>
       </c>
       <c r="D40">
-        <v>0.02966289957416452</v>
+        <v>0.03764690692664951</v>
       </c>
       <c r="E40">
-        <v>0.1333569746785691</v>
+        <v>-0.04828779537199065</v>
       </c>
       <c r="F40">
-        <v>-0.06885879595661797</v>
+        <v>-0.02610870896305768</v>
       </c>
       <c r="G40">
-        <v>-0.0757575688018412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1530210177573834</v>
+      </c>
+      <c r="H40">
+        <v>0.02643920678786831</v>
+      </c>
+      <c r="I40">
+        <v>-0.04279058674033781</v>
+      </c>
+      <c r="J40">
+        <v>0.02973021881688296</v>
+      </c>
+      <c r="K40">
+        <v>0.2879411330919021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01184538118632966</v>
+        <v>0.0218899333902141</v>
       </c>
       <c r="C41">
-        <v>-0.02259855202362522</v>
+        <v>-0.04761834815798265</v>
       </c>
       <c r="D41">
-        <v>0.005224119004241508</v>
+        <v>0.01714516796904931</v>
       </c>
       <c r="E41">
-        <v>-0.01650149047611173</v>
+        <v>0.008657677993712231</v>
       </c>
       <c r="F41">
-        <v>0.03409986720963783</v>
+        <v>0.02334748471940378</v>
       </c>
       <c r="G41">
-        <v>0.0315346353642578</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008366097646932384</v>
+      </c>
+      <c r="H41">
+        <v>0.02302829789722198</v>
+      </c>
+      <c r="I41">
+        <v>0.008008546022715918</v>
+      </c>
+      <c r="J41">
+        <v>0.02327407935336187</v>
+      </c>
+      <c r="K41">
+        <v>0.05027979100336667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.003217545404396611</v>
+        <v>0.01833468085683913</v>
       </c>
       <c r="C43">
-        <v>-0.02249688625173394</v>
+        <v>-0.043992534357098</v>
       </c>
       <c r="D43">
-        <v>0.01081211303694103</v>
+        <v>0.03001425247487943</v>
       </c>
       <c r="E43">
-        <v>-0.007113506564420168</v>
+        <v>0.01323945609121021</v>
       </c>
       <c r="F43">
-        <v>-0.002685579050895131</v>
+        <v>0.006885352665852102</v>
       </c>
       <c r="G43">
-        <v>0.005574999226155532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0003963674481154421</v>
+      </c>
+      <c r="H43">
+        <v>0.04033238339263736</v>
+      </c>
+      <c r="I43">
+        <v>0.00386821287572602</v>
+      </c>
+      <c r="J43">
+        <v>-0.003700895773628865</v>
+      </c>
+      <c r="K43">
+        <v>0.03786035108013979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02431556356548419</v>
+        <v>0.01463974783259341</v>
       </c>
       <c r="C44">
-        <v>-0.09733114685643771</v>
+        <v>-0.09798177448176912</v>
       </c>
       <c r="D44">
-        <v>0.0226627504697973</v>
+        <v>0.0563394833053066</v>
       </c>
       <c r="E44">
-        <v>0.04099014481223363</v>
+        <v>-0.002310661961093115</v>
       </c>
       <c r="F44">
-        <v>-0.06171619208063965</v>
+        <v>-0.06407704203852407</v>
       </c>
       <c r="G44">
-        <v>-0.03587209304791093</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04430070285347517</v>
+      </c>
+      <c r="H44">
+        <v>0.05251127412118027</v>
+      </c>
+      <c r="I44">
+        <v>-0.01711624540313574</v>
+      </c>
+      <c r="J44">
+        <v>-0.05041975425849125</v>
+      </c>
+      <c r="K44">
+        <v>-0.08217510826274309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.005928263482054576</v>
+        <v>0.004837028447382415</v>
       </c>
       <c r="C46">
-        <v>-0.06710954755040995</v>
+        <v>-0.06395563842356942</v>
       </c>
       <c r="D46">
-        <v>0.04037562483476529</v>
+        <v>0.03042265437221945</v>
       </c>
       <c r="E46">
-        <v>0.0286628885414775</v>
+        <v>-0.007299771253566628</v>
       </c>
       <c r="F46">
-        <v>-0.01000966418103784</v>
+        <v>0.0146541100878155</v>
       </c>
       <c r="G46">
-        <v>-0.0560669975746764</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03592010719373116</v>
+      </c>
+      <c r="H46">
+        <v>0.1030833512455084</v>
+      </c>
+      <c r="I46">
+        <v>0.01590503195551455</v>
+      </c>
+      <c r="J46">
+        <v>-0.01725029747299501</v>
+      </c>
+      <c r="K46">
+        <v>0.07508778423676102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.0101150732743414</v>
+        <v>0.02423246592134609</v>
       </c>
       <c r="C47">
-        <v>-0.08236871460802163</v>
+        <v>-0.08300109218553718</v>
       </c>
       <c r="D47">
-        <v>0.0398284025578801</v>
+        <v>0.04490933102341146</v>
       </c>
       <c r="E47">
-        <v>-0.01663958289808143</v>
+        <v>-0.003332711834960395</v>
       </c>
       <c r="F47">
-        <v>0.04341425172746252</v>
+        <v>0.02054818338353613</v>
       </c>
       <c r="G47">
-        <v>-0.05171216704460167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007616296865576959</v>
+      </c>
+      <c r="H47">
+        <v>0.06985066735632099</v>
+      </c>
+      <c r="I47">
+        <v>0.007151949922463731</v>
+      </c>
+      <c r="J47">
+        <v>0.02028347543361149</v>
+      </c>
+      <c r="K47">
+        <v>0.03383014293636853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01164950547106713</v>
+        <v>0.02221001460158674</v>
       </c>
       <c r="C48">
-        <v>-0.05268261953726933</v>
+        <v>-0.05080746360119677</v>
       </c>
       <c r="D48">
-        <v>0.05704648517873547</v>
+        <v>0.05503211180025824</v>
       </c>
       <c r="E48">
-        <v>0.002337194357389384</v>
+        <v>0.006207532521256835</v>
       </c>
       <c r="F48">
-        <v>-0.007888500143910241</v>
+        <v>0.002566088133963315</v>
       </c>
       <c r="G48">
-        <v>-0.01288327789978493</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.003640664580688349</v>
+      </c>
+      <c r="H48">
+        <v>0.09506384917667764</v>
+      </c>
+      <c r="I48">
+        <v>-0.04680293291887826</v>
+      </c>
+      <c r="J48">
+        <v>-0.01780081830752884</v>
+      </c>
+      <c r="K48">
+        <v>-0.09225837906124301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007856694373497505</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02652654317900727</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0007670792347103932</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01642995392527084</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03204841283648165</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03287821344602829</v>
+      </c>
+      <c r="H49">
+        <v>-0.02017911659412286</v>
+      </c>
+      <c r="I49">
+        <v>-0.06134688349359083</v>
+      </c>
+      <c r="J49">
+        <v>-0.03157410437562073</v>
+      </c>
+      <c r="K49">
+        <v>-0.02407700405805103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.001037668505806889</v>
+        <v>0.01430985667317912</v>
       </c>
       <c r="C50">
-        <v>-0.06426797815585476</v>
+        <v>-0.07838929130118073</v>
       </c>
       <c r="D50">
-        <v>0.02650223833753092</v>
+        <v>0.02933398767944486</v>
       </c>
       <c r="E50">
-        <v>0.001194311962417313</v>
+        <v>0.00197081441235056</v>
       </c>
       <c r="F50">
-        <v>-0.008629210177135643</v>
+        <v>-0.005614399410949444</v>
       </c>
       <c r="G50">
-        <v>-0.01667912081974561</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.008518167096146539</v>
+      </c>
+      <c r="H50">
+        <v>0.05572675975821928</v>
+      </c>
+      <c r="I50">
+        <v>-0.002099714603090815</v>
+      </c>
+      <c r="J50">
+        <v>0.04060161191437073</v>
+      </c>
+      <c r="K50">
+        <v>0.02115090557892616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.002797932481806566</v>
+        <v>-0.006428735748134982</v>
       </c>
       <c r="C51">
-        <v>-0.07755832566086862</v>
+        <v>-0.0364819518587319</v>
       </c>
       <c r="D51">
-        <v>0.002321934295326686</v>
+        <v>0.02214893605709239</v>
       </c>
       <c r="E51">
-        <v>0.05386373545456705</v>
+        <v>-0.0225143999344105</v>
       </c>
       <c r="F51">
-        <v>-0.05831250234112138</v>
+        <v>-0.02557377125794907</v>
       </c>
       <c r="G51">
-        <v>-0.01040267649210047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02837985126696577</v>
+      </c>
+      <c r="H51">
+        <v>0.09621470564973279</v>
+      </c>
+      <c r="I51">
+        <v>-0.04453473727210322</v>
+      </c>
+      <c r="J51">
+        <v>0.003894729093260189</v>
+      </c>
+      <c r="K51">
+        <v>-0.09737997976278802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.04277972919547505</v>
+        <v>0.05844649435582275</v>
       </c>
       <c r="C53">
-        <v>-0.1373874122082851</v>
+        <v>-0.1320395725312748</v>
       </c>
       <c r="D53">
-        <v>0.06233216402280817</v>
+        <v>0.05644339901086429</v>
       </c>
       <c r="E53">
-        <v>-0.1263458873929381</v>
+        <v>0.01181402560658469</v>
       </c>
       <c r="F53">
-        <v>0.06681527166266088</v>
+        <v>0.07236065034131903</v>
       </c>
       <c r="G53">
-        <v>0.02333248916360717</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08517893678416949</v>
+      </c>
+      <c r="H53">
+        <v>-0.0301918525968163</v>
+      </c>
+      <c r="I53">
+        <v>-0.0008734135054035782</v>
+      </c>
+      <c r="J53">
+        <v>0.0408166556537566</v>
+      </c>
+      <c r="K53">
+        <v>0.01162999512158145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.004819540125568591</v>
+        <v>0.01892162584413359</v>
       </c>
       <c r="C54">
-        <v>-0.06675291926235709</v>
+        <v>-0.07555083380191635</v>
       </c>
       <c r="D54">
-        <v>0.008538881037620162</v>
+        <v>0.01287393172577524</v>
       </c>
       <c r="E54">
-        <v>-0.02270001727340063</v>
+        <v>-0.001546592507367716</v>
       </c>
       <c r="F54">
-        <v>-0.003203020040732101</v>
+        <v>0.02369350969900511</v>
       </c>
       <c r="G54">
-        <v>-0.01640827256236801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.01756447611394813</v>
+      </c>
+      <c r="H54">
+        <v>0.04816090511829529</v>
+      </c>
+      <c r="I54">
+        <v>-0.02931349874628167</v>
+      </c>
+      <c r="J54">
+        <v>-0.02437057739618517</v>
+      </c>
+      <c r="K54">
+        <v>0.001934065179924798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.02609604269776127</v>
+        <v>0.0331089286028949</v>
       </c>
       <c r="C55">
-        <v>-0.08963376501107127</v>
+        <v>-0.08563345053345943</v>
       </c>
       <c r="D55">
-        <v>0.06696633514844502</v>
+        <v>0.05528088186881391</v>
       </c>
       <c r="E55">
-        <v>-0.05435520094146505</v>
+        <v>0.01485540273722755</v>
       </c>
       <c r="F55">
-        <v>0.04991099163606259</v>
+        <v>0.05067329168451248</v>
       </c>
       <c r="G55">
-        <v>-0.008664622211409055</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04027088991120745</v>
+      </c>
+      <c r="H55">
+        <v>-0.01851724061622</v>
+      </c>
+      <c r="I55">
+        <v>-0.01056621262190579</v>
+      </c>
+      <c r="J55">
+        <v>-0.006271527666632742</v>
+      </c>
+      <c r="K55">
+        <v>0.002726397312279777</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.02730462605560622</v>
+        <v>0.04577110914504692</v>
       </c>
       <c r="C56">
-        <v>-0.1668198954886363</v>
+        <v>-0.1504016125021004</v>
       </c>
       <c r="D56">
-        <v>0.05670073719956577</v>
+        <v>0.07942871228264406</v>
       </c>
       <c r="E56">
-        <v>-0.1157945444324421</v>
+        <v>0.001159407453472579</v>
       </c>
       <c r="F56">
-        <v>0.1085520747897215</v>
+        <v>0.09896018023025829</v>
       </c>
       <c r="G56">
-        <v>0.06450617460810038</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.16021563925441</v>
+      </c>
+      <c r="H56">
+        <v>-0.04394601003367638</v>
+      </c>
+      <c r="I56">
+        <v>-0.02356843472564977</v>
+      </c>
+      <c r="J56">
+        <v>0.02918558810342632</v>
+      </c>
+      <c r="K56">
+        <v>-0.01690468205127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03535458265121431</v>
+        <v>0.0232069715287111</v>
       </c>
       <c r="C58">
-        <v>-0.2904635229338041</v>
+        <v>-0.1843699380393398</v>
       </c>
       <c r="D58">
-        <v>-0.06711396102264837</v>
+        <v>0.03621127136658445</v>
       </c>
       <c r="E58">
-        <v>0.1676754208344836</v>
+        <v>-0.06530067788155322</v>
       </c>
       <c r="F58">
-        <v>-0.2714630459033407</v>
+        <v>-0.3109067822526273</v>
       </c>
       <c r="G58">
-        <v>0.1881357261082641</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.07574225669379982</v>
+      </c>
+      <c r="H58">
+        <v>0.06524917413195822</v>
+      </c>
+      <c r="I58">
+        <v>0.01651519324293098</v>
+      </c>
+      <c r="J58">
+        <v>0.05319044927747401</v>
+      </c>
+      <c r="K58">
+        <v>-0.3698323612060259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2805797757692588</v>
+        <v>0.2887476425498968</v>
       </c>
       <c r="C59">
-        <v>0.004570688006782645</v>
+        <v>0.04530142734018091</v>
       </c>
       <c r="D59">
-        <v>-0.03479573313776705</v>
+        <v>-0.006336498721998339</v>
       </c>
       <c r="E59">
-        <v>0.05740494248357247</v>
+        <v>-0.03475911742225819</v>
       </c>
       <c r="F59">
-        <v>0.0448838494483606</v>
+        <v>-0.03664256041354126</v>
       </c>
       <c r="G59">
-        <v>-0.01836203084834157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.00163745399001224</v>
+      </c>
+      <c r="H59">
+        <v>-0.02039646903260038</v>
+      </c>
+      <c r="I59">
+        <v>0.0127238051478616</v>
+      </c>
+      <c r="J59">
+        <v>0.01888157483419993</v>
+      </c>
+      <c r="K59">
+        <v>0.02884916549231745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1143860717321761</v>
+        <v>0.1474445605959002</v>
       </c>
       <c r="C60">
-        <v>-0.1462473945407073</v>
+        <v>-0.1536373618561514</v>
       </c>
       <c r="D60">
-        <v>0.06860170327369904</v>
+        <v>0.0465897705726448</v>
       </c>
       <c r="E60">
-        <v>-0.04646479401442841</v>
+        <v>-0.01200923086763876</v>
       </c>
       <c r="F60">
-        <v>0.07746128294158632</v>
+        <v>0.1400932234755004</v>
       </c>
       <c r="G60">
-        <v>-0.3169557514834148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2490280276363896</v>
+      </c>
+      <c r="H60">
+        <v>-0.2385451280158307</v>
+      </c>
+      <c r="I60">
+        <v>-0.002893703782711619</v>
+      </c>
+      <c r="J60">
+        <v>-0.02574692045874636</v>
+      </c>
+      <c r="K60">
+        <v>-0.03577224381380395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.001792128346742713</v>
+        <v>0.02011514345696686</v>
       </c>
       <c r="C61">
-        <v>-0.08065608680003816</v>
+        <v>-0.09550182754957587</v>
       </c>
       <c r="D61">
-        <v>0.04706843100979779</v>
+        <v>0.05115790206371273</v>
       </c>
       <c r="E61">
-        <v>-0.01867610423201031</v>
+        <v>0.001104649343143946</v>
       </c>
       <c r="F61">
-        <v>0.0003114878184266946</v>
+        <v>0.03098127696680847</v>
       </c>
       <c r="G61">
-        <v>-0.07407171710970757</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02649963818571215</v>
+      </c>
+      <c r="H61">
+        <v>0.05984876946724129</v>
+      </c>
+      <c r="I61">
+        <v>-0.03321975655366199</v>
+      </c>
+      <c r="J61">
+        <v>-0.02449196884745818</v>
+      </c>
+      <c r="K61">
+        <v>0.01435820854308799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002350254752556635</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01322864422184197</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003676883926094512</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.0003418651627619244</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01333532077219912</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.0164656020685428</v>
+      </c>
+      <c r="H62">
+        <v>0.00377064741793403</v>
+      </c>
+      <c r="I62">
+        <v>-0.05792579983891569</v>
+      </c>
+      <c r="J62">
+        <v>0.02474573529595482</v>
+      </c>
+      <c r="K62">
+        <v>0.01419406468694493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.002172884060353922</v>
+        <v>0.02701585873655992</v>
       </c>
       <c r="C63">
-        <v>-0.06308160508368758</v>
+        <v>-0.06777780707893916</v>
       </c>
       <c r="D63">
-        <v>0.03953707397157608</v>
+        <v>0.0593451111382036</v>
       </c>
       <c r="E63">
-        <v>-0.02705103072118861</v>
+        <v>0.0003896621822671185</v>
       </c>
       <c r="F63">
-        <v>-0.008600778737461094</v>
+        <v>0.02034485484903693</v>
       </c>
       <c r="G63">
-        <v>-0.02865324368891838</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005872653510340907</v>
+      </c>
+      <c r="H63">
+        <v>0.05895424378700758</v>
+      </c>
+      <c r="I63">
+        <v>-0.0377098557444856</v>
+      </c>
+      <c r="J63">
+        <v>-0.004319340478003163</v>
+      </c>
+      <c r="K63">
+        <v>0.01370492278541012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.003213345877023643</v>
+        <v>0.01607303846071733</v>
       </c>
       <c r="C64">
-        <v>-0.08368552063574414</v>
+        <v>-0.09259959966751231</v>
       </c>
       <c r="D64">
-        <v>0.06634257445430206</v>
+        <v>0.03276648115973056</v>
       </c>
       <c r="E64">
-        <v>0.009097111399755213</v>
+        <v>0.01769653765100646</v>
       </c>
       <c r="F64">
-        <v>-0.02250595893228649</v>
+        <v>-0.03587580099689642</v>
       </c>
       <c r="G64">
-        <v>-0.04888126245687916</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07164996529122596</v>
+      </c>
+      <c r="H64">
+        <v>0.04825210562263533</v>
+      </c>
+      <c r="I64">
+        <v>-0.03714207039080948</v>
+      </c>
+      <c r="J64">
+        <v>-0.02733430391324363</v>
+      </c>
+      <c r="K64">
+        <v>0.01795496344299031</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.01190819914648552</v>
+        <v>0.02998858063527337</v>
       </c>
       <c r="C65">
-        <v>-0.08219535425384103</v>
+        <v>-0.09617135812296534</v>
       </c>
       <c r="D65">
-        <v>0.02389040598906248</v>
+        <v>0.01873314687484958</v>
       </c>
       <c r="E65">
-        <v>0.035403423544066</v>
+        <v>0.01996407901445838</v>
       </c>
       <c r="F65">
-        <v>-0.03126134558350349</v>
+        <v>-0.007776048789808772</v>
       </c>
       <c r="G65">
-        <v>-0.03204738188398206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.1007011872876507</v>
+      </c>
+      <c r="H65">
+        <v>0.008405568206894705</v>
+      </c>
+      <c r="I65">
+        <v>0.008034202170242343</v>
+      </c>
+      <c r="J65">
+        <v>-0.07758464161048964</v>
+      </c>
+      <c r="K65">
+        <v>-0.1067211815122102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.00188637196134464</v>
+        <v>0.01453692448694648</v>
       </c>
       <c r="C66">
-        <v>-0.172997903737129</v>
+        <v>-0.1665485700927234</v>
       </c>
       <c r="D66">
-        <v>0.01925545366069446</v>
+        <v>0.0449918679099227</v>
       </c>
       <c r="E66">
-        <v>0.04944616678809328</v>
+        <v>-0.01947368743052454</v>
       </c>
       <c r="F66">
-        <v>-0.02229035077838388</v>
+        <v>-0.005136149011038345</v>
       </c>
       <c r="G66">
-        <v>-0.09645887380446841</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02688584543625674</v>
+      </c>
+      <c r="H66">
+        <v>0.06378595623424962</v>
+      </c>
+      <c r="I66">
+        <v>-0.02996059575452488</v>
+      </c>
+      <c r="J66">
+        <v>-0.05057450020598309</v>
+      </c>
+      <c r="K66">
+        <v>-0.02242256380313912</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02852735792860133</v>
+        <v>0.02082280490945546</v>
       </c>
       <c r="C67">
-        <v>-0.03284163084367379</v>
+        <v>-0.05154420582071509</v>
       </c>
       <c r="D67">
-        <v>0.06337039711477914</v>
+        <v>0.04394107964770765</v>
       </c>
       <c r="E67">
-        <v>-0.0339838035463013</v>
+        <v>0.03327317338014375</v>
       </c>
       <c r="F67">
-        <v>-0.002675007497946914</v>
+        <v>0.01195545840729348</v>
       </c>
       <c r="G67">
-        <v>-0.01987813454391423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02371341113476367</v>
+      </c>
+      <c r="H67">
+        <v>0.05968080482476826</v>
+      </c>
+      <c r="I67">
+        <v>0.04460301307637774</v>
+      </c>
+      <c r="J67">
+        <v>0.04320660461805603</v>
+      </c>
+      <c r="K67">
+        <v>0.04508560235246538</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2903856358595454</v>
+        <v>0.2946978019916092</v>
       </c>
       <c r="C68">
-        <v>0.03990372883558691</v>
+        <v>0.07055806885026265</v>
       </c>
       <c r="D68">
-        <v>-0.02897369557182485</v>
+        <v>-0.02599244112963917</v>
       </c>
       <c r="E68">
-        <v>0.03175332927995909</v>
+        <v>-0.0164674310644691</v>
       </c>
       <c r="F68">
-        <v>-0.009373751828460355</v>
+        <v>-0.03109027643449748</v>
       </c>
       <c r="G68">
-        <v>0.01025153340396515</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01887927992245191</v>
+      </c>
+      <c r="H68">
+        <v>0.02646526062433046</v>
+      </c>
+      <c r="I68">
+        <v>-0.05611605469334877</v>
+      </c>
+      <c r="J68">
+        <v>0.0584187437590576</v>
+      </c>
+      <c r="K68">
+        <v>0.007042875977373497</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01242790138653586</v>
+        <v>0.00713349410775716</v>
       </c>
       <c r="C69">
-        <v>-0.05247340085801394</v>
+        <v>-0.04919275323250844</v>
       </c>
       <c r="D69">
-        <v>0.04431743090777294</v>
+        <v>0.02338933552210913</v>
       </c>
       <c r="E69">
-        <v>-0.01344790046464548</v>
+        <v>-0.0008212613000539111</v>
       </c>
       <c r="F69">
-        <v>-0.001978010380456274</v>
+        <v>0.0108995948174262</v>
       </c>
       <c r="G69">
-        <v>-0.0193200426412559</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02595681859796461</v>
+      </c>
+      <c r="H69">
+        <v>0.04156767849086097</v>
+      </c>
+      <c r="I69">
+        <v>0.001005986503045819</v>
+      </c>
+      <c r="J69">
+        <v>0.01442080106501067</v>
+      </c>
+      <c r="K69">
+        <v>0.0009803289932383402</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2812975938652963</v>
+        <v>0.276537736721608</v>
       </c>
       <c r="C71">
-        <v>0.04961535889536353</v>
+        <v>0.0752128182338299</v>
       </c>
       <c r="D71">
-        <v>-0.03452857123952532</v>
+        <v>-0.02524792999275672</v>
       </c>
       <c r="E71">
-        <v>0.01749011356839753</v>
+        <v>-0.006219017241818246</v>
       </c>
       <c r="F71">
-        <v>-0.0253312644291999</v>
+        <v>-0.06040329200235836</v>
       </c>
       <c r="G71">
-        <v>0.002803560283572896</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02265504225016479</v>
+      </c>
+      <c r="H71">
+        <v>0.05224136021546363</v>
+      </c>
+      <c r="I71">
+        <v>0.0008112057334997841</v>
+      </c>
+      <c r="J71">
+        <v>0.1286754133607989</v>
+      </c>
+      <c r="K71">
+        <v>-0.02756087509062543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.02984636922300705</v>
+        <v>0.0546085508691152</v>
       </c>
       <c r="C72">
-        <v>-0.158931045756826</v>
+        <v>-0.1426034726753284</v>
       </c>
       <c r="D72">
-        <v>0.06111693787222683</v>
+        <v>0.04482818292889451</v>
       </c>
       <c r="E72">
-        <v>0.007096281505517726</v>
+        <v>0.006812677805528887</v>
       </c>
       <c r="F72">
-        <v>-0.09773632725354355</v>
+        <v>0.03121992461111831</v>
       </c>
       <c r="G72">
-        <v>-0.122912699789907</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03014485532326374</v>
+      </c>
+      <c r="H72">
+        <v>0.0289749251547276</v>
+      </c>
+      <c r="I72">
+        <v>-0.02978671127448455</v>
+      </c>
+      <c r="J72">
+        <v>-0.1131926213780241</v>
+      </c>
+      <c r="K72">
+        <v>-0.07167972766334746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07690726437144862</v>
+        <v>0.1514045087315192</v>
       </c>
       <c r="C73">
-        <v>-0.1210982773408123</v>
+        <v>-0.1951968034575974</v>
       </c>
       <c r="D73">
-        <v>0.1102154369241113</v>
+        <v>0.08183362799283218</v>
       </c>
       <c r="E73">
-        <v>-0.135148655825877</v>
+        <v>0.0474203427203911</v>
       </c>
       <c r="F73">
-        <v>0.08662201564917947</v>
+        <v>0.2505905164187673</v>
       </c>
       <c r="G73">
-        <v>-0.4424156156771761</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3726116061896655</v>
+      </c>
+      <c r="H73">
+        <v>-0.2969831299582139</v>
+      </c>
+      <c r="I73">
+        <v>0.09465860572457629</v>
+      </c>
+      <c r="J73">
+        <v>0.06155963817440621</v>
+      </c>
+      <c r="K73">
+        <v>-0.07611821173499836</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01952144775720657</v>
+        <v>0.04065307096195007</v>
       </c>
       <c r="C74">
-        <v>-0.09092826359932531</v>
+        <v>-0.1013823063942377</v>
       </c>
       <c r="D74">
-        <v>0.06954465643614136</v>
+        <v>0.04767901670227979</v>
       </c>
       <c r="E74">
-        <v>-0.07346636318588151</v>
+        <v>0.01821965426016432</v>
       </c>
       <c r="F74">
-        <v>0.05469739406601155</v>
+        <v>0.04061371186174881</v>
       </c>
       <c r="G74">
-        <v>0.01844187016367726</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0468269349471561</v>
+      </c>
+      <c r="H74">
+        <v>-0.005395380435674702</v>
+      </c>
+      <c r="I74">
+        <v>-0.04658734876969772</v>
+      </c>
+      <c r="J74">
+        <v>0.01482250257490137</v>
+      </c>
+      <c r="K74">
+        <v>-0.03129760553827388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.06158988745817966</v>
+        <v>0.06487651016914583</v>
       </c>
       <c r="C75">
-        <v>-0.1461797207902452</v>
+        <v>-0.1662347597262643</v>
       </c>
       <c r="D75">
-        <v>0.08654519702885387</v>
+        <v>0.08334444600563581</v>
       </c>
       <c r="E75">
-        <v>-0.1809903872941444</v>
+        <v>0.08799272002441468</v>
       </c>
       <c r="F75">
-        <v>0.09409903918150601</v>
+        <v>0.09711070747852257</v>
       </c>
       <c r="G75">
-        <v>0.1471372544766279</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.22598352033206</v>
+      </c>
+      <c r="H75">
+        <v>-0.02899388725505267</v>
+      </c>
+      <c r="I75">
+        <v>0.005301783796275592</v>
+      </c>
+      <c r="J75">
+        <v>0.1344902911228137</v>
+      </c>
+      <c r="K75">
+        <v>0.09477832010153632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.02553855204139425</v>
+        <v>0.04278157258032078</v>
       </c>
       <c r="C76">
-        <v>-0.1064431803053884</v>
+        <v>-0.1208203104817854</v>
       </c>
       <c r="D76">
-        <v>0.06010977120004979</v>
+        <v>0.07308218151974416</v>
       </c>
       <c r="E76">
-        <v>-0.08378621060517649</v>
+        <v>0.02332771822641292</v>
       </c>
       <c r="F76">
-        <v>0.08602226278877073</v>
+        <v>0.08021740978451941</v>
       </c>
       <c r="G76">
-        <v>0.01991343788349017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.07773463028210603</v>
+      </c>
+      <c r="H76">
+        <v>-0.02102335372269663</v>
+      </c>
+      <c r="I76">
+        <v>-0.05889208532623005</v>
+      </c>
+      <c r="J76">
+        <v>0.008922632748208991</v>
+      </c>
+      <c r="K76">
+        <v>0.02491151069202433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.07433479924274082</v>
+        <v>0.0500308187346012</v>
       </c>
       <c r="C77">
-        <v>-0.2831869991730288</v>
+        <v>-0.387432910343307</v>
       </c>
       <c r="D77">
-        <v>-0.8595009533827156</v>
+        <v>-0.9042119622219269</v>
       </c>
       <c r="E77">
-        <v>-0.3155253304069145</v>
+        <v>0.05923224537716652</v>
       </c>
       <c r="F77">
-        <v>0.05122679526781519</v>
+        <v>0.07890453573924203</v>
       </c>
       <c r="G77">
-        <v>-0.0571119583595885</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0329802465073603</v>
+      </c>
+      <c r="H77">
+        <v>0.05321984439509512</v>
+      </c>
+      <c r="I77">
+        <v>-0.03889165005673419</v>
+      </c>
+      <c r="J77">
+        <v>0.01102343982687099</v>
+      </c>
+      <c r="K77">
+        <v>0.007208794456992625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02776033881843063</v>
+        <v>0.03494796315356224</v>
       </c>
       <c r="C78">
-        <v>-0.1454217758031057</v>
+        <v>-0.1144822587873764</v>
       </c>
       <c r="D78">
-        <v>0.09452835180057453</v>
+        <v>0.09647553177157393</v>
       </c>
       <c r="E78">
-        <v>0.07024916391977602</v>
+        <v>-0.04323095532744444</v>
       </c>
       <c r="F78">
-        <v>0.1007208825278577</v>
+        <v>0.01054514946107808</v>
       </c>
       <c r="G78">
-        <v>0.04848149438786981</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1261403595037927</v>
+      </c>
+      <c r="H78">
+        <v>0.06010604542250235</v>
+      </c>
+      <c r="I78">
+        <v>-0.01298308578848026</v>
+      </c>
+      <c r="J78">
+        <v>-0.06705607379873185</v>
+      </c>
+      <c r="K78">
+        <v>-0.4210841787241237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.03474622135419457</v>
+        <v>0.05686016235311225</v>
       </c>
       <c r="C79">
-        <v>-0.1827783000182341</v>
+        <v>-0.1426938337946887</v>
       </c>
       <c r="D79">
-        <v>0.1082992887306496</v>
+        <v>0.06875468525035651</v>
       </c>
       <c r="E79">
-        <v>-0.1154403729073358</v>
+        <v>0.01647916213364717</v>
       </c>
       <c r="F79">
-        <v>0.1518360597116539</v>
+        <v>0.06623831798180831</v>
       </c>
       <c r="G79">
-        <v>0.1683017917081024</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2378335578282464</v>
+      </c>
+      <c r="H79">
+        <v>0.0004962183948873643</v>
+      </c>
+      <c r="I79">
+        <v>-0.01964844665978897</v>
+      </c>
+      <c r="J79">
+        <v>0.09787579553460628</v>
+      </c>
+      <c r="K79">
+        <v>-0.05304431410952749</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01051716136989274</v>
+        <v>0.02083430803582207</v>
       </c>
       <c r="C80">
-        <v>-0.04356060186359866</v>
+        <v>-0.0487622480307983</v>
       </c>
       <c r="D80">
-        <v>0.05053704059052249</v>
+        <v>0.03836649537667317</v>
       </c>
       <c r="E80">
-        <v>0.01443862723978419</v>
+        <v>-0.0575499970907932</v>
       </c>
       <c r="F80">
-        <v>0.03521126474070603</v>
+        <v>-0.007645087726431073</v>
       </c>
       <c r="G80">
-        <v>0.003272805936847448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.06117681869474418</v>
+      </c>
+      <c r="H80">
+        <v>-0.02897690075636557</v>
+      </c>
+      <c r="I80">
+        <v>0.03358634411555466</v>
+      </c>
+      <c r="J80">
+        <v>0.02995793875806748</v>
+      </c>
+      <c r="K80">
+        <v>0.06502900638366756</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.01130966937831671</v>
+        <v>0.01740837752985756</v>
       </c>
       <c r="C81">
-        <v>-0.07781266182141683</v>
+        <v>-0.09876645928596303</v>
       </c>
       <c r="D81">
-        <v>0.07971560616343532</v>
+        <v>0.05527338309596964</v>
       </c>
       <c r="E81">
-        <v>-0.08879725810890768</v>
+        <v>0.00775800054163518</v>
       </c>
       <c r="F81">
-        <v>0.09549655216822739</v>
+        <v>0.04611132516699095</v>
       </c>
       <c r="G81">
-        <v>0.05070888335135357</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1153738059709766</v>
+      </c>
+      <c r="H81">
+        <v>0.04026394599470414</v>
+      </c>
+      <c r="I81">
+        <v>-0.01628648934933291</v>
+      </c>
+      <c r="J81">
+        <v>0.0595022718530643</v>
+      </c>
+      <c r="K81">
+        <v>0.02532460817733421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.0294189917785798</v>
+        <v>0.04634029923968952</v>
       </c>
       <c r="C82">
-        <v>-0.08521031386746027</v>
+        <v>-0.1025469996271859</v>
       </c>
       <c r="D82">
-        <v>0.07351546103442677</v>
+        <v>0.06673829094432367</v>
       </c>
       <c r="E82">
-        <v>-0.1053977474893567</v>
+        <v>0.01571317299539469</v>
       </c>
       <c r="F82">
-        <v>0.07728294115040685</v>
+        <v>0.07372300385084596</v>
       </c>
       <c r="G82">
-        <v>0.009673358214927257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09157159213641879</v>
+      </c>
+      <c r="H82">
+        <v>0.002279033767165708</v>
+      </c>
+      <c r="I82">
+        <v>-0.02999157743550787</v>
+      </c>
+      <c r="J82">
+        <v>0.02686993262966338</v>
+      </c>
+      <c r="K82">
+        <v>0.008205099167735732</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004533207828599498</v>
+        <v>-0.001593742349345189</v>
       </c>
       <c r="C83">
-        <v>-0.02783705088344327</v>
+        <v>0.01986106314244248</v>
       </c>
       <c r="D83">
-        <v>-0.1689875589392445</v>
+        <v>-0.05953218483755777</v>
       </c>
       <c r="E83">
-        <v>0.563692353587902</v>
+        <v>-0.9341400445170931</v>
       </c>
       <c r="F83">
-        <v>0.7298632442650611</v>
+        <v>0.208471952571558</v>
       </c>
       <c r="G83">
-        <v>-0.01463740904115927</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.08058614494136146</v>
+      </c>
+      <c r="H83">
+        <v>-0.08879174131242656</v>
+      </c>
+      <c r="I83">
+        <v>-0.0268241929739362</v>
+      </c>
+      <c r="J83">
+        <v>-0.07740928445605219</v>
+      </c>
+      <c r="K83">
+        <v>-0.01930205571072361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.003252580100783902</v>
+        <v>0.0001052977079899299</v>
       </c>
       <c r="C84">
-        <v>-0.07250673320426057</v>
+        <v>-0.04644041742075136</v>
       </c>
       <c r="D84">
-        <v>0.03424007833337786</v>
+        <v>0.061153530339764</v>
       </c>
       <c r="E84">
-        <v>0.06749964840872187</v>
+        <v>-0.001869760678347617</v>
       </c>
       <c r="F84">
-        <v>-0.1412854993708993</v>
+        <v>-0.09892783171566262</v>
       </c>
       <c r="G84">
-        <v>0.0831817744275012</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.03443716237146081</v>
+      </c>
+      <c r="H84">
+        <v>0.08575906300737798</v>
+      </c>
+      <c r="I84">
+        <v>-0.08322747343504673</v>
+      </c>
+      <c r="J84">
+        <v>-0.09442557682973933</v>
+      </c>
+      <c r="K84">
+        <v>0.06330006817738829</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.02062105556463812</v>
+        <v>0.02965420951748412</v>
       </c>
       <c r="C85">
-        <v>-0.1334680655051742</v>
+        <v>-0.1176215453338221</v>
       </c>
       <c r="D85">
-        <v>0.08750698733995993</v>
+        <v>0.08268853688936754</v>
       </c>
       <c r="E85">
-        <v>-0.1206395189032072</v>
+        <v>0.03811780801539118</v>
       </c>
       <c r="F85">
-        <v>0.1400201182633788</v>
+        <v>0.1280825006169103</v>
       </c>
       <c r="G85">
-        <v>0.1074134234115767</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2130938221178925</v>
+      </c>
+      <c r="H85">
+        <v>-0.04501543529613419</v>
+      </c>
+      <c r="I85">
+        <v>-0.07261172858732746</v>
+      </c>
+      <c r="J85">
+        <v>0.1046189827608355</v>
+      </c>
+      <c r="K85">
+        <v>0.04725857877899548</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01838953784007747</v>
+        <v>0.01498453001993358</v>
       </c>
       <c r="C86">
-        <v>-0.07446945443882204</v>
+        <v>-0.08320919462937867</v>
       </c>
       <c r="D86">
-        <v>-0.03521973260268125</v>
+        <v>0.02549755066520971</v>
       </c>
       <c r="E86">
-        <v>0.01930119129742819</v>
+        <v>-0.02492331422701795</v>
       </c>
       <c r="F86">
-        <v>-0.06630372562305017</v>
+        <v>-0.07969857724437887</v>
       </c>
       <c r="G86">
-        <v>-0.04316808285737624</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04784712173348121</v>
+      </c>
+      <c r="H86">
+        <v>0.01020472535353127</v>
+      </c>
+      <c r="I86">
+        <v>0.144425403757379</v>
+      </c>
+      <c r="J86">
+        <v>0.10852396726284</v>
+      </c>
+      <c r="K86">
+        <v>-0.1839082477252307</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.03813826127120429</v>
+        <v>0.027266309011615</v>
       </c>
       <c r="C87">
-        <v>-0.1564691624986071</v>
+        <v>-0.1190171205644962</v>
       </c>
       <c r="D87">
-        <v>0.02119453423754952</v>
+        <v>0.01811361252146404</v>
       </c>
       <c r="E87">
-        <v>0.09973455977833513</v>
+        <v>-0.01251737111077027</v>
       </c>
       <c r="F87">
-        <v>-0.05335816081673312</v>
+        <v>-0.07097873483786615</v>
       </c>
       <c r="G87">
-        <v>0.03542907178157466</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.008742368147360966</v>
+      </c>
+      <c r="H87">
+        <v>0.03722080861406356</v>
+      </c>
+      <c r="I87">
+        <v>-0.1176750432802796</v>
+      </c>
+      <c r="J87">
+        <v>-0.05303697952535852</v>
+      </c>
+      <c r="K87">
+        <v>-0.0609747779306101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.006389099331687359</v>
+        <v>0.03792588972873566</v>
       </c>
       <c r="C88">
-        <v>-0.03818383076476218</v>
+        <v>-0.06291821328298142</v>
       </c>
       <c r="D88">
-        <v>0.04877849407654073</v>
+        <v>0.04285242293842791</v>
       </c>
       <c r="E88">
-        <v>-0.05509479194099454</v>
+        <v>0.01366785697142693</v>
       </c>
       <c r="F88">
-        <v>0.01657566751029377</v>
+        <v>0.02008893604958496</v>
       </c>
       <c r="G88">
-        <v>-0.02185744642975346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02835392854386369</v>
+      </c>
+      <c r="H88">
+        <v>0.002281264520571447</v>
+      </c>
+      <c r="I88">
+        <v>-0.008068763791097347</v>
+      </c>
+      <c r="J88">
+        <v>0.02141832479383439</v>
+      </c>
+      <c r="K88">
+        <v>0.07444788934600706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.386203791607294</v>
+        <v>0.389407299184743</v>
       </c>
       <c r="C89">
-        <v>0.09454938233274711</v>
+        <v>0.1182464618842931</v>
       </c>
       <c r="D89">
-        <v>0.1089037448746382</v>
+        <v>-0.03240387356103866</v>
       </c>
       <c r="E89">
-        <v>0.08651122134403538</v>
+        <v>0.02913766549195918</v>
       </c>
       <c r="F89">
-        <v>-0.07228990611380634</v>
+        <v>-0.0807119632047465</v>
       </c>
       <c r="G89">
-        <v>0.09703213039081197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.05306341244894043</v>
+      </c>
+      <c r="H89">
+        <v>0.01438366392851215</v>
+      </c>
+      <c r="I89">
+        <v>-0.1694729377489486</v>
+      </c>
+      <c r="J89">
+        <v>-0.7132392842887494</v>
+      </c>
+      <c r="K89">
+        <v>-0.01593345013550138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3044061770867826</v>
+        <v>0.3154379402952427</v>
       </c>
       <c r="C90">
-        <v>0.03652440380870028</v>
+        <v>0.07688102282590685</v>
       </c>
       <c r="D90">
-        <v>-0.01588038381171235</v>
+        <v>-0.01820063284014939</v>
       </c>
       <c r="E90">
-        <v>0.07398649229857969</v>
+        <v>-0.02377077971048149</v>
       </c>
       <c r="F90">
-        <v>0.01376086400812187</v>
+        <v>-0.03354757849037084</v>
       </c>
       <c r="G90">
-        <v>-0.01770043873654439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01301453503710754</v>
+      </c>
+      <c r="H90">
+        <v>0.02118280433562447</v>
+      </c>
+      <c r="I90">
+        <v>0.0136950872192332</v>
+      </c>
+      <c r="J90">
+        <v>0.08224002000026906</v>
+      </c>
+      <c r="K90">
+        <v>0.001400173813691459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.03451716322625838</v>
+        <v>0.0529976690572963</v>
       </c>
       <c r="C91">
-        <v>-0.08275788567594387</v>
+        <v>-0.08349468926095682</v>
       </c>
       <c r="D91">
-        <v>0.0488921975146412</v>
+        <v>0.04392636082254081</v>
       </c>
       <c r="E91">
-        <v>-0.06092127153940361</v>
+        <v>-0.01268246469364753</v>
       </c>
       <c r="F91">
-        <v>0.07905386870634744</v>
+        <v>0.0629387611218284</v>
       </c>
       <c r="G91">
-        <v>0.05165109468211999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07894448270781698</v>
+      </c>
+      <c r="H91">
+        <v>-0.02928658530679311</v>
+      </c>
+      <c r="I91">
+        <v>-0.00707566681776849</v>
+      </c>
+      <c r="J91">
+        <v>-0.000273740177407709</v>
+      </c>
+      <c r="K91">
+        <v>0.05140565358573914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3843924497601442</v>
+        <v>0.3542031954628803</v>
       </c>
       <c r="C92">
-        <v>0.08561126173598271</v>
+        <v>0.1217136467090231</v>
       </c>
       <c r="D92">
-        <v>-0.008079075553165709</v>
+        <v>-0.05268173621241284</v>
       </c>
       <c r="E92">
-        <v>-0.0364750977125914</v>
+        <v>0.02705112071796959</v>
       </c>
       <c r="F92">
-        <v>-0.1025973466535565</v>
+        <v>-0.06076705862305777</v>
       </c>
       <c r="G92">
-        <v>0.03736643740332053</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01237587675824496</v>
+      </c>
+      <c r="H92">
+        <v>0.0637129646479483</v>
+      </c>
+      <c r="I92">
+        <v>0.04170639524926283</v>
+      </c>
+      <c r="J92">
+        <v>0.152651845119112</v>
+      </c>
+      <c r="K92">
+        <v>0.00919913889338928</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.2997711171367849</v>
+        <v>0.3106808023356702</v>
       </c>
       <c r="C93">
-        <v>0.08143619507360432</v>
+        <v>0.1133999327645265</v>
       </c>
       <c r="D93">
-        <v>0.008610173319040192</v>
+        <v>-0.008660373716567764</v>
       </c>
       <c r="E93">
-        <v>0.06095323993217883</v>
+        <v>-0.006571142173274299</v>
       </c>
       <c r="F93">
-        <v>-0.0319579954919274</v>
+        <v>-0.03819854580811718</v>
       </c>
       <c r="G93">
-        <v>0.01848361315053496</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04121424863918659</v>
+      </c>
+      <c r="H93">
+        <v>0.02897319416475181</v>
+      </c>
+      <c r="I93">
+        <v>0.04881730516501832</v>
+      </c>
+      <c r="J93">
+        <v>0.0950346007357121</v>
+      </c>
+      <c r="K93">
+        <v>-0.01314800935974745</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.04797480187613365</v>
+        <v>0.07825539847322824</v>
       </c>
       <c r="C94">
-        <v>-0.210907850944595</v>
+        <v>-0.1642518593706969</v>
       </c>
       <c r="D94">
-        <v>0.1577271325224969</v>
+        <v>0.104546453925893</v>
       </c>
       <c r="E94">
-        <v>-0.2520360060818792</v>
+        <v>0.05614382308028053</v>
       </c>
       <c r="F94">
-        <v>0.2329117562773684</v>
+        <v>0.1479074886409741</v>
       </c>
       <c r="G94">
-        <v>0.5288317032745883</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5415766319047414</v>
+      </c>
+      <c r="H94">
+        <v>-0.2107013459084856</v>
+      </c>
+      <c r="I94">
+        <v>0.0603714839637831</v>
+      </c>
+      <c r="J94">
+        <v>-0.1960758997006549</v>
+      </c>
+      <c r="K94">
+        <v>0.2622125790373572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.0385386800947893</v>
+        <v>0.04018045761333983</v>
       </c>
       <c r="C95">
-        <v>-0.0944527495090602</v>
+        <v>-0.1278968379262362</v>
       </c>
       <c r="D95">
-        <v>0.0348181993315269</v>
+        <v>0.05841629023299651</v>
       </c>
       <c r="E95">
-        <v>-0.02900665244572708</v>
+        <v>0.04076167361636578</v>
       </c>
       <c r="F95">
-        <v>0.0804172299736064</v>
+        <v>0.06554252463056308</v>
       </c>
       <c r="G95">
-        <v>-0.1196517908775457</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05352886912424004</v>
+      </c>
+      <c r="H95">
+        <v>0.07516082923939452</v>
+      </c>
+      <c r="I95">
+        <v>-0.1260193237641288</v>
+      </c>
+      <c r="J95">
+        <v>-0.1349610558650647</v>
+      </c>
+      <c r="K95">
+        <v>0.24413642065243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0002254475341265885</v>
+        <v>0.01308346963126405</v>
       </c>
       <c r="C97">
-        <v>0.0004872644520815373</v>
+        <v>-0.01809372824818357</v>
       </c>
       <c r="D97">
-        <v>3.678156234761343e-05</v>
+        <v>-0.01094995160232133</v>
       </c>
       <c r="E97">
-        <v>-1.764808390045107e-05</v>
+        <v>0.03111889275161063</v>
       </c>
       <c r="F97">
-        <v>-0.0005072680605690389</v>
+        <v>-0.02218886417493225</v>
       </c>
       <c r="G97">
-        <v>0.0002395684931113341</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02883758226192517</v>
+      </c>
+      <c r="H97">
+        <v>0.04570197991496043</v>
+      </c>
+      <c r="I97">
+        <v>0.129986487547067</v>
+      </c>
+      <c r="J97">
+        <v>-0.06703106935025274</v>
+      </c>
+      <c r="K97">
+        <v>0.005376898930828873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08961119047541155</v>
+        <v>0.1313757091713616</v>
       </c>
       <c r="C98">
-        <v>-0.1523770118719956</v>
+        <v>-0.1593193166340794</v>
       </c>
       <c r="D98">
-        <v>0.1175421980412055</v>
+        <v>0.08927743898774662</v>
       </c>
       <c r="E98">
-        <v>-0.0811702421757044</v>
+        <v>0.03882558464892728</v>
       </c>
       <c r="F98">
-        <v>0.05911488414710429</v>
+        <v>0.2255091813553942</v>
       </c>
       <c r="G98">
-        <v>-0.2916489834605636</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3146146066869662</v>
+      </c>
+      <c r="H98">
+        <v>-0.324878251973446</v>
+      </c>
+      <c r="I98">
+        <v>0.1115984376252849</v>
+      </c>
+      <c r="J98">
+        <v>0.07138878530146543</v>
+      </c>
+      <c r="K98">
+        <v>-0.0759492582431255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01523300000711367</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04835322324676004</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.007436404079820812</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.03531304215766106</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.04391100706968125</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.07056494796327985</v>
+      </c>
+      <c r="H99">
+        <v>0.1308895516635692</v>
+      </c>
+      <c r="I99">
+        <v>0.856499730481086</v>
+      </c>
+      <c r="J99">
+        <v>-0.2749857480955063</v>
+      </c>
+      <c r="K99">
+        <v>-0.0589748049720513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.008162185413529401</v>
+        <v>0.01394379499124061</v>
       </c>
       <c r="C101">
-        <v>-0.07239221632563828</v>
+        <v>-0.08039572620025033</v>
       </c>
       <c r="D101">
-        <v>0.03722514324160005</v>
+        <v>0.05261300844168001</v>
       </c>
       <c r="E101">
-        <v>0.03725382578842398</v>
+        <v>-0.05343082394984027</v>
       </c>
       <c r="F101">
-        <v>-0.006738805831587211</v>
+        <v>0.01207141473568572</v>
       </c>
       <c r="G101">
-        <v>-0.09279748501925451</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1187572605505575</v>
+      </c>
+      <c r="H101">
+        <v>0.2924032270942339</v>
+      </c>
+      <c r="I101">
+        <v>0.01132858009735092</v>
+      </c>
+      <c r="J101">
+        <v>-0.03456826831251593</v>
+      </c>
+      <c r="K101">
+        <v>0.1806315100175845</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.009673690498730035</v>
+        <v>0.003621098872383855</v>
       </c>
       <c r="C102">
-        <v>-0.0272110491732492</v>
+        <v>-0.01048537103289091</v>
       </c>
       <c r="D102">
-        <v>0.007518192636096323</v>
+        <v>0.000975897413727616</v>
       </c>
       <c r="E102">
-        <v>-0.01825915725898337</v>
+        <v>-0.003786272954737566</v>
       </c>
       <c r="F102">
-        <v>0.0305327857606552</v>
+        <v>0.007908787191359245</v>
       </c>
       <c r="G102">
-        <v>-0.001758125586033077</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.004329400882150475</v>
+      </c>
+      <c r="H102">
+        <v>-0.0007089449015512287</v>
+      </c>
+      <c r="I102">
+        <v>-0.0008491601961523015</v>
+      </c>
+      <c r="J102">
+        <v>-0.01924286988883684</v>
+      </c>
+      <c r="K102">
+        <v>-0.006720677805815188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
